--- a/app/Guest_2.xlsx
+++ b/app/Guest_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Công ty" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="184">
   <si>
     <t>ITT</t>
   </si>
@@ -264,9 +264,6 @@
     <t>PTT</t>
   </si>
   <si>
-    <t>MMT</t>
-  </si>
-  <si>
     <t>Đội bóng</t>
   </si>
   <si>
@@ -369,12 +366,6 @@
     <t>Chị Trà</t>
   </si>
   <si>
-    <t>Chị Thơm</t>
-  </si>
-  <si>
-    <t>Chị Hương</t>
-  </si>
-  <si>
     <t>A Hòa MAT</t>
   </si>
   <si>
@@ -393,9 +384,6 @@
     <t>A Sơn Lùn</t>
   </si>
   <si>
-    <t>Thu Chó</t>
-  </si>
-  <si>
     <t>Thúy</t>
   </si>
   <si>
@@ -405,18 +393,6 @@
     <t>Hoàng</t>
   </si>
   <si>
-    <t>Hiền BG</t>
-  </si>
-  <si>
-    <t>Tuyên BG</t>
-  </si>
-  <si>
-    <t>Thành BG</t>
-  </si>
-  <si>
-    <t>Hiệu BG</t>
-  </si>
-  <si>
     <t>A Long</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
     <t>Khắc</t>
   </si>
   <si>
-    <t>Thành Khoái</t>
-  </si>
-  <si>
     <t>A Cương</t>
   </si>
   <si>
@@ -606,19 +579,37 @@
     <t>Chị Thảo Welco</t>
   </si>
   <si>
-    <t>Mr.Kim GM</t>
-  </si>
-  <si>
-    <t>Hà Phương</t>
-  </si>
-  <si>
     <t>Đinh</t>
   </si>
   <si>
     <t>xe</t>
   </si>
   <si>
-    <t>Phạm Ngọc Anh</t>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>SỐ MÂM</t>
+  </si>
+  <si>
+    <t>Mr.Kim GM x2 con</t>
+  </si>
+  <si>
+    <t>An Sơn</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Hiệu</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Tuyên</t>
+  </si>
+  <si>
+    <t>Đạt</t>
   </si>
 </sst>
 </file>
@@ -628,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +703,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,9 +880,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +898,13 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,13 +933,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1211,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,14 +1254,14 @@
     <col min="12" max="12" width="18.28515625" style="3" customWidth="1"/>
     <col min="13" max="14" width="18.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18.140625" style="3" customWidth="1"/>
-    <col min="16" max="22" width="18.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="21" width="18.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -1284,7 +1306,7 @@
         <v>67</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>82</v>
@@ -1293,265 +1315,254 @@
         <v>83</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+        <v>70</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="43" t="s">
         <v>57</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="24" t="s">
-        <v>95</v>
+      <c r="U2" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
         <v>64</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="R3" s="24" t="s">
+      <c r="O3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="U3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="K4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="43" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="P4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="U4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="43" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="21" t="s">
-        <v>183</v>
+      <c r="K5" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="P5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="U5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="7"/>
@@ -1560,43 +1571,42 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="23" t="s">
-        <v>168</v>
-      </c>
+      <c r="P6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="U6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>170</v>
+      <c r="C7" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="7"/>
@@ -1605,39 +1615,38 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="U7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>171</v>
+      <c r="C8" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="43" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="24" t="s">
-        <v>80</v>
+      <c r="I8" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1650,33 +1659,32 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>181</v>
+      <c r="C9" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="43" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="24" t="s">
-        <v>81</v>
+      <c r="I9" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1689,27 +1697,26 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>169</v>
+      <c r="G10" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="7"/>
@@ -1723,23 +1730,22 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="7"/>
@@ -1755,20 +1761,22 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="7"/>
@@ -1784,21 +1792,20 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="7"/>
@@ -1815,18 +1822,17 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="7"/>
@@ -1844,18 +1850,17 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="7"/>
@@ -1873,19 +1878,18 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="24" t="s">
-        <v>139</v>
+      <c r="F16" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1902,19 +1906,18 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="21" t="s">
-        <v>167</v>
+      <c r="F17" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1931,11 +1934,10 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -1958,11 +1960,10 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -1971,96 +1972,79 @@
         <v>8</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19:W19" si="0">COUNTA(D2:D18)</f>
+        <f t="shared" ref="D19:V19" si="0">COUNTA(D2:D18)</f>
         <v>4</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="11">
         <v>10</v>
       </c>
-      <c r="F19" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="M19" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
-        <f>COUNTA(O2:O18)</f>
+      <c r="Q19" s="11">
         <v>2</v>
       </c>
-      <c r="P19" s="11">
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="T19" s="11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U19" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W19" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="34">
-        <f>SUM(C19:W19)</f>
-        <v>101</v>
-      </c>
-      <c r="D20" s="34"/>
+      <c r="C20" s="36">
+        <f>SUM(C19:V19)</f>
+        <v>71</v>
+      </c>
+      <c r="D20" s="36"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2078,16 +2062,15 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -2106,145 +2089,144 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>101</v>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="W22" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="Q22" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2265,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,120 +2258,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
+      <c r="A1" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>73</v>
+      <c r="C2" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -2399,322 +2381,313 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>101</v>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>119</v>
+      <c r="C22" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>120</v>
+      <c r="C23" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="C24" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
+      <c r="C25" s="27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>113</v>
+      <c r="C26" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>114</v>
+      <c r="C27" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>118</v>
+      <c r="C28" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>117</v>
+      <c r="C29" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>116</v>
+      <c r="C30" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>115</v>
+      <c r="C31" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>143</v>
+      <c r="C32" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>128</v>
+      <c r="C33" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>129</v>
+      <c r="C34" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>178</v>
+      <c r="C35" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>179</v>
+      <c r="C37" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>112</v>
+      <c r="C38" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>31</v>
+      <c r="C39" s="27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>121</v>
+      <c r="C40" s="27" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>122</v>
+      <c r="C41" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
       <c r="B42" s="2">
         <v>21</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>180</v>
+      <c r="C42" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
       <c r="B43" s="2">
         <v>22</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43">
-        <v>14</v>
+      <c r="C43" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
       <c r="B44" s="2">
         <v>23</v>
       </c>
-      <c r="C44" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
+      <c r="C44" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A21"/>
-    <mergeCell ref="A22:A41"/>
     <mergeCell ref="C20:D21"/>
+    <mergeCell ref="A22:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2725,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,297 +2709,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
+      <c r="A1" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>101</v>
+      <c r="A22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>123</v>
+      <c r="C22" s="27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>124</v>
+      <c r="C23" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>125</v>
+      <c r="C24" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>72</v>
+      <c r="C25" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>126</v>
+      <c r="C26" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>127</v>
+      <c r="C27" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>128</v>
+      <c r="C28" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>129</v>
+      <c r="C29" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>130</v>
+      <c r="C30" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>145</v>
+      <c r="C31" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>146</v>
+      <c r="C32" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>148</v>
+      <c r="C33" s="27" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>149</v>
+      <c r="C34" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>177</v>
+      <c r="C35" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>186</v>
+      <c r="C36" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3037,6 +3010,7 @@
     <mergeCell ref="A22:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3044,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,8 +3030,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
+      <c r="A1" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -3065,342 +3039,342 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>101</v>
+      <c r="A22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>131</v>
+      <c r="C22" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>132</v>
+      <c r="C23" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>133</v>
+      <c r="C24" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>134</v>
+      <c r="C25" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>135</v>
+      <c r="C26" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>136</v>
+      <c r="C27" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>137</v>
+      <c r="C28" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>138</v>
+      <c r="C29" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>139</v>
+      <c r="C30" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>140</v>
+      <c r="C31" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>141</v>
+      <c r="C32" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>142</v>
+      <c r="C33" s="45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>143</v>
+      <c r="C34" s="45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>144</v>
+      <c r="C35" s="45" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>147</v>
+      <c r="C36" s="45" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>155</v>
+      <c r="C37" s="45" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>158</v>
+      <c r="C38" s="45" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>159</v>
+      <c r="C39" s="45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>172</v>
+      <c r="C40" s="45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>173</v>
+      <c r="C41" s="45" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="2">
         <v>21</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>174</v>
+      <c r="C42" s="45" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="2">
         <v>22</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>175</v>
+      <c r="C43" s="45" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="2">
         <v>23</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>176</v>
+      <c r="C44" s="45" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="2">
         <v>24</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>150</v>
+      <c r="C45" s="45" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3392,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,264 +3400,261 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>101</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="C22" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="C23" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3699,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,50 +3684,70 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="B2">
-        <v>103</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>161</v>
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <f>G2/6</f>
+        <v>11.833333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <f>G3/6</f>
         <v>10</v>
       </c>
     </row>
